--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1989.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1989.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.192761093447247</v>
+        <v>0.6189727187156677</v>
       </c>
       <c r="B1">
-        <v>2.199464877201029</v>
+        <v>0.8037946820259094</v>
       </c>
       <c r="C1">
-        <v>8.194574171437225</v>
+        <v>1.237553477287292</v>
       </c>
       <c r="D1">
-        <v>2.639020754461654</v>
+        <v>5.565415382385254</v>
       </c>
       <c r="E1">
-        <v>1.19417481829353</v>
+        <v>4.533619403839111</v>
       </c>
     </row>
   </sheetData>
